--- a/Assets/Studies/CHI26_Study1_Funneling/data_processing/data/p7_data.xlsx
+++ b/Assets/Studies/CHI26_Study1_Funneling/data_processing/data/p7_data.xlsx
@@ -426,7 +426,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -441,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.9868</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -472,7 +472,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>-15</v>
@@ -484,10 +484,10 @@
         <v>0.25</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.27887</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,7 +495,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -507,10 +507,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,7 +518,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>9</v>
@@ -533,7 +533,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1214288</v>
+        <v>0.46789127</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -541,7 +541,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>-15</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.76123</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -564,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.1524496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -587,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>-15</v>
@@ -599,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G9">
-        <v>0.2872535</v>
+        <v>0.128467</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -610,7 +610,7 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -622,10 +622,10 @@
         <v>0.75</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -633,7 +633,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>-15</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>-15</v>
@@ -668,10 +668,10 @@
         <v>0.5</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G12">
-        <v>0.8430074</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -679,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>-15</v>
@@ -691,10 +691,10 @@
         <v>0.25</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -702,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>-15</v>
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G14">
-        <v>0.2069671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -725,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1047468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -748,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.8089335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -771,7 +771,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8682492000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -794,7 +794,7 @@
         <v>7</v>
       </c>
       <c r="B18">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0.75</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>7</v>
       </c>
       <c r="B19">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -829,10 +829,10 @@
         <v>0.25</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.9429562</v>
+        <v>0.1214288</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -840,7 +840,7 @@
         <v>7</v>
       </c>
       <c r="B20">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>7</v>
       </c>
       <c r="B21">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.1524496</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -886,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>0.5</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0.2887441</v>
+        <v>0.2872535</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -909,7 +909,7 @@
         <v>7</v>
       </c>
       <c r="B23">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>-15</v>
@@ -921,10 +921,10 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -932,7 +932,7 @@
         <v>7</v>
       </c>
       <c r="B24">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0.5</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B25">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.7703169</v>
+        <v>0.8430074</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -978,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>9</v>
@@ -993,7 +993,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1001,7 +1001,7 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -1013,10 +1013,10 @@
         <v>0.25</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.2069671</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1024,7 +1024,7 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -1036,10 +1036,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.1206478</v>
+        <v>0.1047468</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1047,7 +1047,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>-15</v>
@@ -1062,7 +1062,7 @@
         <v>-1</v>
       </c>
       <c r="G29">
-        <v>0.8475505</v>
+        <v>0.8089335</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1070,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.1388204</v>
+        <v>0.8682492000000001</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1093,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C31">
         <v>9</v>
@@ -1105,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1116,7 +1116,7 @@
         <v>7</v>
       </c>
       <c r="B32">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C32">
         <v>-15</v>
@@ -1131,7 +1131,7 @@
         <v>-1</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0.9429562</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1139,7 +1139,7 @@
         <v>7</v>
       </c>
       <c r="B33">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.8543651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1162,7 +1162,7 @@
         <v>7</v>
       </c>
       <c r="B34">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C34">
         <v>-15</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.1728936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1185,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="B35">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C35">
         <v>9</v>
@@ -1197,10 +1197,10 @@
         <v>0.25</v>
       </c>
       <c r="F35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.8407359</v>
+        <v>0.2887441</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1208,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="B36">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>-15</v>
@@ -1220,10 +1220,10 @@
         <v>0.25</v>
       </c>
       <c r="F36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0.1274624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1231,7 +1231,7 @@
         <v>7</v>
       </c>
       <c r="B37">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C37">
         <v>-15</v>
@@ -1246,7 +1246,7 @@
         <v>-1</v>
       </c>
       <c r="G37">
-        <v>0.6976267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1254,7 +1254,7 @@
         <v>7</v>
       </c>
       <c r="B38">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1266,10 +1266,10 @@
         <v>0.75</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0.8475501</v>
+        <v>0.7703169</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1277,7 +1277,7 @@
         <v>7</v>
       </c>
       <c r="B39">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C39">
         <v>9</v>
@@ -1289,10 +1289,10 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.9066111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1300,7 +1300,7 @@
         <v>7</v>
       </c>
       <c r="B40">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>0.6090356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1323,7 +1323,7 @@
         <v>7</v>
       </c>
       <c r="B41">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C41">
         <v>9</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.4454824</v>
+        <v>0.1206478</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1346,7 +1346,7 @@
         <v>7</v>
       </c>
       <c r="B42">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C42">
         <v>-15</v>
@@ -1358,10 +1358,10 @@
         <v>0.75</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G42">
-        <v>0.3296322</v>
+        <v>0.8475505</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1369,7 +1369,7 @@
         <v>7</v>
       </c>
       <c r="B43">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1381,10 +1381,10 @@
         <v>0.25</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.2622664</v>
+        <v>0.1388204</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1392,7 +1392,7 @@
         <v>7</v>
       </c>
       <c r="B44">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.2137821</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1415,7 +1415,7 @@
         <v>7</v>
       </c>
       <c r="B45">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C45">
         <v>-15</v>
@@ -1427,10 +1427,10 @@
         <v>0.75</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G45">
-        <v>0.1706221</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1438,7 +1438,7 @@
         <v>7</v>
       </c>
       <c r="B46">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C46">
         <v>9</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.1623172</v>
+        <v>0.8543651</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1461,7 +1461,7 @@
         <v>7</v>
       </c>
       <c r="B47">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>-15</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0.1728936</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1484,7 +1484,7 @@
         <v>7</v>
       </c>
       <c r="B48">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C48">
         <v>-15</v>
@@ -1496,10 +1496,10 @@
         <v>0.75</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0.8407359</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1507,7 +1507,7 @@
         <v>7</v>
       </c>
       <c r="B49">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C49">
         <v>-15</v>
@@ -1519,10 +1519,10 @@
         <v>0.25</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0.1274624</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1530,7 +1530,7 @@
         <v>7</v>
       </c>
       <c r="B50">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C50">
         <v>-15</v>
@@ -1542,16 +1542,19 @@
         <v>0.75</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0.6976267</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
         <v>7</v>
       </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
       <c r="C51">
         <v>0</v>
       </c>
@@ -1560,12 +1563,21 @@
       </c>
       <c r="E51">
         <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0.8475501</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
         <v>7</v>
       </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
       <c r="C52">
         <v>-15</v>
       </c>
@@ -1574,12 +1586,21 @@
       </c>
       <c r="E52">
         <v>1</v>
+      </c>
+      <c r="F52">
+        <v>-1</v>
+      </c>
+      <c r="G52">
+        <v>0.9066111</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
         <v>7</v>
       </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
       <c r="C53">
         <v>9</v>
       </c>
@@ -1589,11 +1610,20 @@
       <c r="E53">
         <v>0.5</v>
       </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0.6090356</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
         <v>7</v>
       </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
       <c r="C54">
         <v>9</v>
       </c>
@@ -1603,11 +1633,20 @@
       <c r="E54">
         <v>0.5</v>
       </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0.4454824</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
         <v>7</v>
       </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
       <c r="C55">
         <v>9</v>
       </c>
@@ -1617,11 +1656,20 @@
       <c r="E55">
         <v>0.25</v>
       </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0.3296322</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
         <v>7</v>
       </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
       <c r="C56">
         <v>9</v>
       </c>
@@ -1630,12 +1678,21 @@
       </c>
       <c r="E56">
         <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0.2622664</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
         <v>7</v>
       </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
       <c r="C57">
         <v>-15</v>
       </c>
@@ -1645,11 +1702,20 @@
       <c r="E57">
         <v>0.5</v>
       </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0.2137821</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
         <v>7</v>
       </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
       <c r="C58">
         <v>-15</v>
       </c>
@@ -1658,12 +1724,21 @@
       </c>
       <c r="E58">
         <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0.1706221</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
         <v>7</v>
       </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
       <c r="C59">
         <v>0</v>
       </c>
@@ -1672,12 +1747,21 @@
       </c>
       <c r="E59">
         <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0.1623172</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
         <v>7</v>
       </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
       <c r="C60">
         <v>0</v>
       </c>
@@ -1687,11 +1771,20 @@
       <c r="E60">
         <v>0.5</v>
       </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
         <v>7</v>
       </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
       <c r="C61">
         <v>0</v>
       </c>
@@ -1701,11 +1794,20 @@
       <c r="E61">
         <v>0.75</v>
       </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
         <v>7</v>
       </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
       <c r="C62">
         <v>9</v>
       </c>
@@ -1715,11 +1817,20 @@
       <c r="E62">
         <v>0.5</v>
       </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
         <v>7</v>
       </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
       <c r="C63">
         <v>9</v>
       </c>
@@ -1729,11 +1840,20 @@
       <c r="E63">
         <v>0.75</v>
       </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
         <v>7</v>
       </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
       <c r="C64">
         <v>-15</v>
       </c>
@@ -1743,11 +1863,20 @@
       <c r="E64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64">
+        <v>-1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>7</v>
       </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
       <c r="C65">
         <v>9</v>
       </c>
@@ -1757,11 +1886,20 @@
       <c r="E65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>7</v>
       </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
       <c r="C66">
         <v>-15</v>
       </c>
@@ -1771,10 +1909,19 @@
       <c r="E66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0.1161045</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>7</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1785,10 +1932,19 @@
       <c r="E67">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>7</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
       </c>
       <c r="C68">
         <v>9</v>
@@ -1799,10 +1955,19 @@
       <c r="E68">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0.795304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>7</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
       </c>
       <c r="C69">
         <v>9</v>
@@ -1813,10 +1978,19 @@
       <c r="E69">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0.8770806</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>7</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1827,11 +2001,20 @@
       <c r="E70">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0.9020681</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>7</v>
       </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
       <c r="C71">
         <v>0</v>
       </c>
@@ -1841,10 +2024,19 @@
       <c r="E71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0.9270553</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>7</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
       </c>
       <c r="C72">
         <v>9</v>
@@ -1855,10 +2047,19 @@
       <c r="E72">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0.4000508</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>7</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
       </c>
       <c r="C73">
         <v>-15</v>
@@ -1869,11 +2070,20 @@
       <c r="E73">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0.3841499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>7</v>
       </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
       <c r="C74">
         <v>-15</v>
       </c>
@@ -1883,10 +2093,19 @@
       <c r="E74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74">
+        <v>-1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>7</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
       </c>
       <c r="C75">
         <v>9</v>
@@ -1897,10 +2116,19 @@
       <c r="E75">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0.1320058</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>7</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
       </c>
       <c r="C76">
         <v>-15</v>
@@ -1911,10 +2139,19 @@
       <c r="E76">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76">
+        <v>-1</v>
+      </c>
+      <c r="G76">
+        <v>0.3864214</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>7</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
       </c>
       <c r="C77">
         <v>-15</v>
@@ -1925,10 +2162,19 @@
       <c r="E77">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0.8816237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>7</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
       </c>
       <c r="C78">
         <v>-15</v>
@@ -1939,11 +2185,20 @@
       <c r="E78">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78">
+        <v>-1</v>
+      </c>
+      <c r="G78">
+        <v>0.2599948</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>7</v>
       </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
       <c r="C79">
         <v>9</v>
       </c>
@@ -1953,11 +2208,20 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0.1002035</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>7</v>
       </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
       <c r="C80">
         <v>9</v>
       </c>
@@ -1967,10 +2231,19 @@
       <c r="E80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>0.8134766</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>7</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
       </c>
       <c r="C81">
         <v>9</v>
@@ -1981,10 +2254,19 @@
       <c r="E81">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0.1569929</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>7</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
       </c>
       <c r="C82">
         <v>-15</v>
@@ -1995,11 +2277,20 @@
       <c r="E82">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82">
+        <v>-1</v>
+      </c>
+      <c r="G82">
+        <v>0.9868976</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>7</v>
       </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
       <c r="C83">
         <v>-15</v>
       </c>
@@ -2009,10 +2300,19 @@
       <c r="E83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83">
+        <v>-1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>7</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
       </c>
       <c r="C84">
         <v>-15</v>
@@ -2023,10 +2323,19 @@
       <c r="E84">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>-1</v>
+      </c>
+      <c r="G84">
+        <v>0.9838447</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>7</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
       </c>
       <c r="C85">
         <v>-15</v>
@@ -2037,10 +2346,19 @@
       <c r="E85">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85">
+        <v>-1</v>
+      </c>
+      <c r="G85">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>7</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
       </c>
       <c r="C86">
         <v>9</v>
@@ -2051,10 +2369,19 @@
       <c r="E86">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0.8748091</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>7</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
       </c>
       <c r="C87">
         <v>-15</v>
@@ -2065,10 +2392,19 @@
       <c r="E87">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87">
+        <v>-1</v>
+      </c>
+      <c r="G87">
+        <v>0.6930833</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>7</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
       </c>
       <c r="C88">
         <v>9</v>
@@ -2079,11 +2415,20 @@
       <c r="E88">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>0.3182743</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>7</v>
       </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
       <c r="C89">
         <v>-15</v>
       </c>
@@ -2093,10 +2438,19 @@
       <c r="E89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89">
+        <v>-1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>7</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
       </c>
       <c r="C90">
         <v>9</v>
@@ -2107,11 +2461,20 @@
       <c r="E90">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0.5658756</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>7</v>
       </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
       <c r="C91">
         <v>9</v>
       </c>
@@ -2121,10 +2484,19 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>7</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2135,11 +2507,20 @@
       <c r="E92">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0.8611797</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>7</v>
       </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
       <c r="C93">
         <v>9</v>
       </c>
@@ -2149,10 +2530,19 @@
       <c r="E93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>0.08203125999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>7</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
       </c>
       <c r="C94">
         <v>9</v>
@@ -2163,10 +2553,19 @@
       <c r="E94">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>7</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
       </c>
       <c r="C95">
         <v>-15</v>
@@ -2177,10 +2576,19 @@
       <c r="E95">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95">
+        <v>-1</v>
+      </c>
+      <c r="G95">
+        <v>0.3750634</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>7</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
       </c>
       <c r="C96">
         <v>9</v>
@@ -2191,10 +2599,19 @@
       <c r="E96">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>7</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2205,10 +2622,19 @@
       <c r="E97">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>7</v>
+      </c>
+      <c r="B98">
+        <v>97</v>
       </c>
       <c r="C98">
         <v>9</v>
@@ -2219,10 +2645,19 @@
       <c r="E98">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>0.2637566</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>7</v>
+      </c>
+      <c r="B99">
+        <v>98</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2233,11 +2668,20 @@
       <c r="E99">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0.7248854</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>7</v>
       </c>
+      <c r="B100">
+        <v>99</v>
+      </c>
       <c r="C100">
         <v>-15</v>
       </c>
@@ -2247,10 +2691,19 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>-1</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>7</v>
+      </c>
+      <c r="B101">
+        <v>100</v>
       </c>
       <c r="C101">
         <v>9</v>
@@ -2261,10 +2714,19 @@
       <c r="E101">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>7</v>
+      </c>
+      <c r="B102">
+        <v>101</v>
       </c>
       <c r="C102">
         <v>-15</v>
@@ -2275,10 +2737,19 @@
       <c r="E102">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>-1</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>7</v>
+      </c>
+      <c r="B103">
+        <v>102</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2289,10 +2760,19 @@
       <c r="E103">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>7</v>
+      </c>
+      <c r="B104">
+        <v>103</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2303,11 +2783,20 @@
       <c r="E104">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>7</v>
       </c>
+      <c r="B105">
+        <v>104</v>
+      </c>
       <c r="C105">
         <v>0</v>
       </c>
@@ -2317,10 +2806,19 @@
       <c r="E105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>7</v>
+      </c>
+      <c r="B106">
+        <v>105</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2331,11 +2829,20 @@
       <c r="E106">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0.5363451</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>7</v>
       </c>
+      <c r="B107">
+        <v>106</v>
+      </c>
       <c r="C107">
         <v>9</v>
       </c>
@@ -2345,10 +2852,19 @@
       <c r="E107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>0.1092899</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>7</v>
+      </c>
+      <c r="B108">
+        <v>107</v>
       </c>
       <c r="C108">
         <v>-15</v>
@@ -2359,10 +2875,19 @@
       <c r="E108">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108">
+        <v>-1</v>
+      </c>
+      <c r="G108">
+        <v>0.3841498</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>7</v>
+      </c>
+      <c r="B109">
+        <v>108</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2373,10 +2898,19 @@
       <c r="E109">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0.6953552</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>7</v>
+      </c>
+      <c r="B110">
+        <v>109</v>
       </c>
       <c r="C110">
         <v>-15</v>
@@ -2387,11 +2921,20 @@
       <c r="E110">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0.849822</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>7</v>
       </c>
+      <c r="B111">
+        <v>110</v>
+      </c>
       <c r="C111">
         <v>9</v>
       </c>
@@ -2401,11 +2944,20 @@
       <c r="E111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112">
         <v>7</v>
       </c>
+      <c r="B112">
+        <v>111</v>
+      </c>
       <c r="C112">
         <v>-15</v>
       </c>
@@ -2415,11 +2967,20 @@
       <c r="E112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112">
+        <v>-1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113">
         <v>7</v>
       </c>
+      <c r="B113">
+        <v>112</v>
+      </c>
       <c r="C113">
         <v>-15</v>
       </c>
@@ -2429,11 +2990,20 @@
       <c r="E113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0.9543142</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114">
         <v>7</v>
       </c>
+      <c r="B114">
+        <v>113</v>
+      </c>
       <c r="C114">
         <v>-15</v>
       </c>
@@ -2443,10 +3013,19 @@
       <c r="E114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114">
+        <v>-1</v>
+      </c>
+      <c r="G114">
+        <v>0.9384131</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115">
         <v>7</v>
+      </c>
+      <c r="B115">
+        <v>114</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2457,11 +3036,20 @@
       <c r="E115">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0.177437</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116">
         <v>7</v>
       </c>
+      <c r="B116">
+        <v>115</v>
+      </c>
       <c r="C116">
         <v>-15</v>
       </c>
@@ -2471,10 +3059,19 @@
       <c r="E116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0.05022893</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117">
         <v>7</v>
+      </c>
+      <c r="B117">
+        <v>116</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2485,10 +3082,19 @@
       <c r="E117">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118">
         <v>7</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2499,11 +3105,20 @@
       <c r="E118">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0.1100712</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119">
         <v>7</v>
       </c>
+      <c r="B119">
+        <v>118</v>
+      </c>
       <c r="C119">
         <v>9</v>
       </c>
@@ -2513,10 +3128,19 @@
       <c r="E119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120">
         <v>7</v>
+      </c>
+      <c r="B120">
+        <v>119</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2527,10 +3151,19 @@
       <c r="E120">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121">
         <v>7</v>
+      </c>
+      <c r="B121">
+        <v>120</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2541,11 +3174,20 @@
       <c r="E121">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0.172894</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122">
         <v>7</v>
       </c>
+      <c r="B122">
+        <v>121</v>
+      </c>
       <c r="C122">
         <v>0</v>
       </c>
@@ -2555,10 +3197,19 @@
       <c r="E122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123">
         <v>7</v>
+      </c>
+      <c r="B123">
+        <v>122</v>
       </c>
       <c r="C123">
         <v>-15</v>
@@ -2569,10 +3220,19 @@
       <c r="E123">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0.8929819</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124">
         <v>7</v>
+      </c>
+      <c r="B124">
+        <v>123</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2583,10 +3243,19 @@
       <c r="E124">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0.05477231</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125">
         <v>7</v>
+      </c>
+      <c r="B125">
+        <v>124</v>
       </c>
       <c r="C125">
         <v>9</v>
@@ -2597,11 +3266,20 @@
       <c r="E125">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>0.08430248</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126">
         <v>7</v>
       </c>
+      <c r="B126">
+        <v>125</v>
+      </c>
       <c r="C126">
         <v>0</v>
       </c>
@@ -2611,11 +3289,20 @@
       <c r="E126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0.908883</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127">
         <v>7</v>
       </c>
+      <c r="B127">
+        <v>126</v>
+      </c>
       <c r="C127">
         <v>0</v>
       </c>
@@ -2625,10 +3312,19 @@
       <c r="E127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127">
+        <v>-1</v>
+      </c>
+      <c r="G127">
+        <v>0.8929816</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128">
         <v>7</v>
+      </c>
+      <c r="B128">
+        <v>127</v>
       </c>
       <c r="C128">
         <v>9</v>
@@ -2639,10 +3335,19 @@
       <c r="E128">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>0.6771827</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129">
         <v>7</v>
+      </c>
+      <c r="B129">
+        <v>128</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2653,11 +3358,20 @@
       <c r="E129">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0.5590607</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130">
         <v>7</v>
       </c>
+      <c r="B130">
+        <v>129</v>
+      </c>
       <c r="C130">
         <v>0</v>
       </c>
@@ -2667,11 +3381,20 @@
       <c r="E130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131">
         <v>7</v>
       </c>
+      <c r="B131">
+        <v>130</v>
+      </c>
       <c r="C131">
         <v>0</v>
       </c>
@@ -2681,11 +3404,20 @@
       <c r="E131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132">
         <v>7</v>
       </c>
+      <c r="B132">
+        <v>131</v>
+      </c>
       <c r="C132">
         <v>-15</v>
       </c>
@@ -2695,10 +3427,19 @@
       <c r="E132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132">
+        <v>-1</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133">
         <v>7</v>
+      </c>
+      <c r="B133">
+        <v>132</v>
       </c>
       <c r="C133">
         <v>9</v>
@@ -2709,11 +3450,20 @@
       <c r="E133">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>0.9588573</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134">
         <v>7</v>
       </c>
+      <c r="B134">
+        <v>133</v>
+      </c>
       <c r="C134">
         <v>-15</v>
       </c>
@@ -2723,10 +3473,19 @@
       <c r="E134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134">
+        <v>-1</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135">
         <v>7</v>
+      </c>
+      <c r="B135">
+        <v>134</v>
       </c>
       <c r="C135">
         <v>-15</v>
@@ -2737,10 +3496,19 @@
       <c r="E135">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135">
+        <v>-1</v>
+      </c>
+      <c r="G135">
+        <v>0.1100712</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136">
         <v>7</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
       </c>
       <c r="C136">
         <v>9</v>
@@ -2751,10 +3519,19 @@
       <c r="E136">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137">
         <v>7</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2765,10 +3542,19 @@
       <c r="E137">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138">
         <v>7</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2779,10 +3565,19 @@
       <c r="E138">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139">
         <v>7</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
       </c>
       <c r="C139">
         <v>-15</v>
@@ -2793,10 +3588,19 @@
       <c r="E139">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139">
+        <v>-1</v>
+      </c>
+      <c r="G139">
+        <v>0.2024241</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140">
         <v>7</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2807,11 +3611,20 @@
       <c r="E140">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0.2296831</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141">
         <v>7</v>
       </c>
+      <c r="B141">
+        <v>140</v>
+      </c>
       <c r="C141">
         <v>9</v>
       </c>
@@ -2821,10 +3634,19 @@
       <c r="E141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142">
         <v>7</v>
+      </c>
+      <c r="B142">
+        <v>141</v>
       </c>
       <c r="C142">
         <v>9</v>
@@ -2835,10 +3657,19 @@
       <c r="E142">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>0.2932872</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143">
         <v>7</v>
+      </c>
+      <c r="B143">
+        <v>142</v>
       </c>
       <c r="C143">
         <v>-15</v>
@@ -2849,10 +3680,19 @@
       <c r="E143">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143">
+        <v>-1</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144">
         <v>7</v>
+      </c>
+      <c r="B144">
+        <v>143</v>
       </c>
       <c r="C144">
         <v>-15</v>
@@ -2863,10 +3703,19 @@
       <c r="E144">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144">
+        <v>-1</v>
+      </c>
+      <c r="G144">
+        <v>0.4136804</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145">
         <v>7</v>
+      </c>
+      <c r="B145">
+        <v>144</v>
       </c>
       <c r="C145">
         <v>9</v>
@@ -2877,10 +3726,19 @@
       <c r="E145">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>0.9111542</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146">
         <v>7</v>
+      </c>
+      <c r="B146">
+        <v>145</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2891,11 +3749,20 @@
       <c r="E146">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147">
         <v>7</v>
       </c>
+      <c r="B147">
+        <v>146</v>
+      </c>
       <c r="C147">
         <v>9</v>
       </c>
@@ -2905,10 +3772,19 @@
       <c r="E147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148">
         <v>7</v>
+      </c>
+      <c r="B148">
+        <v>147</v>
       </c>
       <c r="C148">
         <v>9</v>
@@ -2919,11 +3795,20 @@
       <c r="E148">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>0.1320055</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149">
         <v>7</v>
       </c>
+      <c r="B149">
+        <v>148</v>
+      </c>
       <c r="C149">
         <v>-15</v>
       </c>
@@ -2933,10 +3818,19 @@
       <c r="E149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149">
+        <v>-1</v>
+      </c>
+      <c r="G149">
+        <v>0.8611796</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150">
         <v>7</v>
+      </c>
+      <c r="B150">
+        <v>149</v>
       </c>
       <c r="C150">
         <v>9</v>
@@ -2947,10 +3841,19 @@
       <c r="E150">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>0.1161044</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151">
         <v>7</v>
+      </c>
+      <c r="B151">
+        <v>150</v>
       </c>
       <c r="C151">
         <v>-15</v>
@@ -2961,11 +3864,20 @@
       <c r="E151">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151">
+        <v>-1</v>
+      </c>
+      <c r="G151">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152">
         <v>7</v>
       </c>
+      <c r="B152">
+        <v>151</v>
+      </c>
       <c r="C152">
         <v>0</v>
       </c>
@@ -2975,11 +3887,20 @@
       <c r="E152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0.9111545</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153">
         <v>7</v>
       </c>
+      <c r="B153">
+        <v>152</v>
+      </c>
       <c r="C153">
         <v>-15</v>
       </c>
@@ -2989,10 +3910,19 @@
       <c r="E153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153">
+        <v>-1</v>
+      </c>
+      <c r="G153">
+        <v>0.9293267</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154">
         <v>7</v>
+      </c>
+      <c r="B154">
+        <v>153</v>
       </c>
       <c r="C154">
         <v>-15</v>
@@ -3003,11 +3933,20 @@
       <c r="E154">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154">
+        <v>-1</v>
+      </c>
+      <c r="G154">
+        <v>0.05477195</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155">
         <v>7</v>
       </c>
+      <c r="B155">
+        <v>154</v>
+      </c>
       <c r="C155">
         <v>0</v>
       </c>
@@ -3017,10 +3956,19 @@
       <c r="E155">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156">
         <v>7</v>
+      </c>
+      <c r="B156">
+        <v>155</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -3031,11 +3979,20 @@
       <c r="E156">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0.02751335</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157">
         <v>7</v>
       </c>
+      <c r="B157">
+        <v>156</v>
+      </c>
       <c r="C157">
         <v>0</v>
       </c>
@@ -3045,10 +4002,19 @@
       <c r="E157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158">
         <v>7</v>
+      </c>
+      <c r="B158">
+        <v>157</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -3059,10 +4025,19 @@
       <c r="E158">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159">
         <v>7</v>
+      </c>
+      <c r="B159">
+        <v>158</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -3073,10 +4048,19 @@
       <c r="E159">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160">
         <v>7</v>
+      </c>
+      <c r="B160">
+        <v>159</v>
       </c>
       <c r="C160">
         <v>9</v>
@@ -3087,10 +4071,19 @@
       <c r="E160">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161">
         <v>7</v>
+      </c>
+      <c r="B161">
+        <v>160</v>
       </c>
       <c r="C161">
         <v>9</v>
@@ -3101,11 +4094,20 @@
       <c r="E161">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162">
         <v>7</v>
       </c>
+      <c r="B162">
+        <v>161</v>
+      </c>
       <c r="C162">
         <v>0</v>
       </c>
@@ -3115,11 +4117,20 @@
       <c r="E162">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163">
         <v>7</v>
       </c>
+      <c r="B163">
+        <v>162</v>
+      </c>
       <c r="C163">
         <v>9</v>
       </c>
@@ -3129,10 +4140,19 @@
       <c r="E163">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164">
         <v>7</v>
+      </c>
+      <c r="B164">
+        <v>163</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -3143,10 +4163,19 @@
       <c r="E164">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165">
         <v>7</v>
+      </c>
+      <c r="B165">
+        <v>164</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -3157,11 +4186,20 @@
       <c r="E165">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0.07067296000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166">
         <v>7</v>
       </c>
+      <c r="B166">
+        <v>165</v>
+      </c>
       <c r="C166">
         <v>0</v>
       </c>
@@ -3171,10 +4209,19 @@
       <c r="E166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167">
         <v>7</v>
+      </c>
+      <c r="B167">
+        <v>166</v>
       </c>
       <c r="C167">
         <v>9</v>
@@ -3185,10 +4232,19 @@
       <c r="E167">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168">
         <v>7</v>
+      </c>
+      <c r="B168">
+        <v>167</v>
       </c>
       <c r="C168">
         <v>9</v>
@@ -3199,10 +4255,19 @@
       <c r="E168">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169">
         <v>7</v>
+      </c>
+      <c r="B169">
+        <v>168</v>
       </c>
       <c r="C169">
         <v>-15</v>
@@ -3213,11 +4278,20 @@
       <c r="E169">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169">
+        <v>-1</v>
+      </c>
+      <c r="G169">
+        <v>0.8907100999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170">
         <v>7</v>
       </c>
+      <c r="B170">
+        <v>169</v>
+      </c>
       <c r="C170">
         <v>9</v>
       </c>
@@ -3227,11 +4301,20 @@
       <c r="E170">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171">
         <v>7</v>
       </c>
+      <c r="B171">
+        <v>170</v>
+      </c>
       <c r="C171">
         <v>-15</v>
       </c>
@@ -3241,10 +4324,19 @@
       <c r="E171">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171">
+        <v>-1</v>
+      </c>
+      <c r="G171">
+        <v>0.134277</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172">
         <v>7</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
       </c>
       <c r="C172">
         <v>9</v>
@@ -3255,10 +4347,19 @@
       <c r="E172">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>0.9702152000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173">
         <v>7</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3269,11 +4370,20 @@
       <c r="E173">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0.1115614</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174">
         <v>7</v>
       </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
       <c r="C174">
         <v>9</v>
       </c>
@@ -3283,10 +4393,19 @@
       <c r="E174">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0.07067331</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175">
         <v>7</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3297,11 +4416,20 @@
       <c r="E175">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176">
         <v>7</v>
       </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
       <c r="C176">
         <v>9</v>
       </c>
@@ -3311,11 +4439,20 @@
       <c r="E176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0.9338701</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177">
         <v>7</v>
       </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
       <c r="C177">
         <v>0</v>
       </c>
@@ -3325,10 +4462,19 @@
       <c r="E177">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0.04341432</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178">
         <v>7</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
       </c>
       <c r="C178">
         <v>-15</v>
@@ -3339,10 +4485,19 @@
       <c r="E178">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178">
+        <v>-1</v>
+      </c>
+      <c r="G178">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179">
         <v>7</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
       </c>
       <c r="C179">
         <v>-15</v>
@@ -3353,11 +4508,20 @@
       <c r="E179">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179">
+        <v>-1</v>
+      </c>
+      <c r="G179">
+        <v>0.7612308</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180">
         <v>7</v>
       </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
       <c r="C180">
         <v>0</v>
       </c>
@@ -3367,10 +4531,19 @@
       <c r="E180">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180">
+        <v>-1</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181">
         <v>7</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
       </c>
       <c r="C181">
         <v>-15</v>
@@ -3380,6 +4553,12 @@
       </c>
       <c r="E181">
         <v>0.75</v>
+      </c>
+      <c r="F181">
+        <v>-1</v>
+      </c>
+      <c r="G181">
+        <v>0.8248345</v>
       </c>
     </row>
   </sheetData>
